--- a/CCBC Treasurer/21-22/Boat Club Accounts 2021-22.xlsx
+++ b/CCBC Treasurer/21-22/Boat Club Accounts 2021-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam Drury\Documents\CAMBRIDGE\CCBC\CCBC Treasurer\21-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869F92C8-865D-4897-96F5-093AE31534C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979E4E10-573D-43B2-ABF7-CB99C18CB30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2543,6 +2543,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="40" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="14" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2564,10 +2568,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="40" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3013,7 +3013,7 @@
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C24" sqref="C24"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="C2" s="61">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="63"/>
@@ -3235,67 +3235,67 @@
         <v>0</v>
       </c>
       <c r="M3" s="74">
-        <f>-SUM(M10:M802)</f>
+        <f t="shared" ref="M3:AB3" si="0">-SUM(M10:M802)</f>
         <v>6</v>
       </c>
       <c r="N3" s="74">
-        <f>-SUM(N10:N802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="74">
-        <f>-SUM(O10:O802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="74">
-        <f>-SUM(P10:P802)</f>
+        <f t="shared" si="0"/>
         <v>5560</v>
       </c>
       <c r="Q3" s="74">
-        <f>-SUM(Q10:Q802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="74">
-        <f>-SUM(R10:R802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="74">
-        <f>-SUM(S10:S802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="74">
-        <f>-SUM(T10:T802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="74">
-        <f>-SUM(U10:U802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="74">
-        <f>-SUM(V10:V802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="74">
-        <f>-SUM(W10:W802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="74">
-        <f>-SUM(X10:X802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y3" s="74">
-        <f>-SUM(Y10:Y802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z3" s="74">
-        <f>-SUM(Z10:Z802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA3" s="74">
-        <f>-SUM(AA10:AA802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3" s="74">
-        <f>-SUM(AB10:AB802)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC3" s="4"/>
@@ -3444,112 +3444,112 @@
       <c r="F5" s="82"/>
       <c r="G5" s="83"/>
       <c r="H5" s="84" t="str">
-        <f t="shared" ref="H5:AB5" si="0">IF(H4=0,"-",(H3/H4))</f>
+        <f t="shared" ref="H5:AB5" si="1">IF(H4=0,"-",(H3/H4))</f>
         <v>-</v>
       </c>
       <c r="I5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="K5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88959999999999995</v>
       </c>
       <c r="Q5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB5" s="85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="86">
-        <f t="shared" ref="AD5:AI5" si="1">IF(AD4=0,"-",(AD3/AD4))</f>
+        <f t="shared" ref="AD5:AI5" si="2">IF(AD4=0,"-",(AD3/AD4))</f>
         <v>0</v>
       </c>
       <c r="AE5" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="AF5" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG5" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
       <c r="AH5" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI5" s="86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AJ5" s="8"/>
@@ -3571,112 +3571,112 @@
       <c r="F6" s="71"/>
       <c r="G6" s="72"/>
       <c r="H6" s="77">
-        <f t="shared" ref="H6:AB6" si="2">(H4-H3)</f>
+        <f t="shared" ref="H6:AB6" si="3">(H4-H3)</f>
         <v>0</v>
       </c>
       <c r="I6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13750</v>
       </c>
       <c r="J6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3590</v>
       </c>
       <c r="K6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3500</v>
       </c>
       <c r="L6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="M6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="N6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3800</v>
       </c>
       <c r="O6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
       <c r="P6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>690</v>
       </c>
       <c r="Q6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="R6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="S6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="T6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="U6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6500</v>
       </c>
       <c r="V6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="W6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="X6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
       <c r="Y6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>325</v>
       </c>
       <c r="Z6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="AA6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="AB6" s="78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="AC6" s="6"/>
       <c r="AD6" s="79">
-        <f t="shared" ref="AD6:AI6" si="3">(AD4-AD3)</f>
+        <f t="shared" ref="AD6:AI6" si="4">(AD4-AD3)</f>
         <v>12000</v>
       </c>
       <c r="AE6" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF6" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2250</v>
       </c>
       <c r="AG6" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH6" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="AI6" s="79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="AJ6" s="5"/>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="98"/>
-      <c r="B10" s="279" t="s">
+      <c r="B10" s="272" t="s">
         <v>396</v>
       </c>
       <c r="C10" s="104"/>
@@ -3936,7 +3936,7 @@
       <c r="A11" s="213">
         <v>44380</v>
       </c>
-      <c r="B11" s="277" t="s">
+      <c r="B11" s="270" t="s">
         <v>391</v>
       </c>
       <c r="C11" s="214" t="s">
@@ -3948,7 +3948,7 @@
       <c r="E11" s="216">
         <v>-36.33</v>
       </c>
-      <c r="F11" s="276">
+      <c r="F11" s="269">
         <f>IF(E11=0,"",IF(D11&gt;0,IF(D11="CASH",F10,IF(D11="UNCASHED",F10,IF(D11="DONATION",F10,F10+E11))),F10))</f>
         <v>10732.06</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="A12" s="117">
         <v>44380</v>
       </c>
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="271" t="s">
         <v>392</v>
       </c>
       <c r="C12" s="104" t="s">
@@ -4006,11 +4006,11 @@
         <v>-27.8</v>
       </c>
       <c r="F12" s="135">
-        <f t="shared" ref="F12:F30" si="4">IF(E12=0,"",IF(D12&gt;0,IF(D12="CASH",F11,IF(D12="UNCASHED",F11,IF(D12="DONATION",F11,F11+E12))),F11))</f>
+        <f t="shared" ref="F12:F30" si="5">IF(E12=0,"",IF(D12&gt;0,IF(D12="CASH",F11,IF(D12="UNCASHED",F11,IF(D12="DONATION",F11,F11+E12))),F11))</f>
         <v>10704.26</v>
       </c>
       <c r="G12" s="114">
-        <f t="shared" ref="G12:G30" si="5">IF(B12=0, " ", G11+SUM(AD12:AI12))</f>
+        <f t="shared" ref="G12:G30" si="6">IF(B12=0, " ", G11+SUM(AD12:AI12))</f>
         <v>113147.17</v>
       </c>
       <c r="H12" s="115"/>
@@ -4050,7 +4050,7 @@
       <c r="A13" s="117">
         <v>44380</v>
       </c>
-      <c r="B13" s="278" t="s">
+      <c r="B13" s="271" t="s">
         <v>393</v>
       </c>
       <c r="C13" s="104" t="s">
@@ -4063,11 +4063,11 @@
         <v>-120</v>
       </c>
       <c r="F13" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10584.26</v>
       </c>
       <c r="G13" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H13" s="115"/>
@@ -4107,7 +4107,7 @@
       <c r="A14" s="117">
         <v>44380</v>
       </c>
-      <c r="B14" s="278" t="s">
+      <c r="B14" s="271" t="s">
         <v>394</v>
       </c>
       <c r="C14" s="104" t="s">
@@ -4120,11 +4120,11 @@
         <v>-55.1</v>
       </c>
       <c r="F14" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10529.16</v>
       </c>
       <c r="G14" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H14" s="115"/>
@@ -4164,7 +4164,7 @@
       <c r="A15" s="117">
         <v>44381</v>
       </c>
-      <c r="B15" s="278" t="s">
+      <c r="B15" s="271" t="s">
         <v>395</v>
       </c>
       <c r="C15" s="104" t="s">
@@ -4177,11 +4177,11 @@
         <v>-40</v>
       </c>
       <c r="F15" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10489.16</v>
       </c>
       <c r="G15" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H15" s="115"/>
@@ -4234,11 +4234,11 @@
         <v>10</v>
       </c>
       <c r="F16" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10499.16</v>
       </c>
       <c r="G16" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H16" s="115"/>
@@ -4291,11 +4291,11 @@
         <v>-260</v>
       </c>
       <c r="F17" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10239.16</v>
       </c>
       <c r="G17" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H17" s="115"/>
@@ -4348,11 +4348,11 @@
         <v>-300</v>
       </c>
       <c r="F18" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9939.16</v>
       </c>
       <c r="G18" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H18" s="115"/>
@@ -4405,11 +4405,11 @@
         <v>-5000</v>
       </c>
       <c r="F19" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4939.16</v>
       </c>
       <c r="G19" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H19" s="115"/>
@@ -4449,7 +4449,7 @@
       <c r="A20" s="117">
         <v>44385</v>
       </c>
-      <c r="B20" s="278" t="s">
+      <c r="B20" s="271" t="s">
         <v>390</v>
       </c>
       <c r="C20" s="104" t="s">
@@ -4462,11 +4462,11 @@
         <v>-920</v>
       </c>
       <c r="F20" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4019.16</v>
       </c>
       <c r="G20" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H20" s="115"/>
@@ -4519,11 +4519,11 @@
         <v>-6</v>
       </c>
       <c r="F21" s="135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4013.16</v>
       </c>
       <c r="G21" s="114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113147.17</v>
       </c>
       <c r="H21" s="115"/>
@@ -4566,11 +4566,11 @@
       <c r="D22" s="105"/>
       <c r="E22" s="106"/>
       <c r="F22" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G22" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H22" s="115"/>
@@ -4611,11 +4611,11 @@
       <c r="D23" s="105"/>
       <c r="E23" s="106"/>
       <c r="F23" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G23" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H23" s="115"/>
@@ -4656,11 +4656,11 @@
       <c r="D24" s="105"/>
       <c r="E24" s="106"/>
       <c r="F24" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G24" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H24" s="115"/>
@@ -4701,11 +4701,11 @@
       <c r="D25" s="105"/>
       <c r="E25" s="106"/>
       <c r="F25" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G25" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H25" s="115"/>
@@ -4746,11 +4746,11 @@
       <c r="D26" s="105"/>
       <c r="E26" s="106"/>
       <c r="F26" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G26" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H26" s="115"/>
@@ -4791,11 +4791,11 @@
       <c r="D27" s="105"/>
       <c r="E27" s="106"/>
       <c r="F27" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G27" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H27" s="115"/>
@@ -4836,11 +4836,11 @@
       <c r="D28" s="105"/>
       <c r="E28" s="106"/>
       <c r="F28" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G28" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H28" s="115"/>
@@ -4881,11 +4881,11 @@
       <c r="D29" s="105"/>
       <c r="E29" s="106"/>
       <c r="F29" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G29" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H29" s="115"/>
@@ -4926,11 +4926,11 @@
       <c r="D30" s="105"/>
       <c r="E30" s="106"/>
       <c r="F30" s="135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G30" s="114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H30" s="115"/>
@@ -4971,11 +4971,11 @@
       <c r="D31" s="105"/>
       <c r="E31" s="106"/>
       <c r="F31" s="135" t="str">
-        <f t="shared" ref="F31:F94" si="6">IF(E31=0,"",IF(D31&gt;0,IF(D31="CASH",F30,IF(D31="UNCASHED",F30,IF(D31="DONATION",F30,F30+E31))),F30))</f>
+        <f t="shared" ref="F31:F94" si="7">IF(E31=0,"",IF(D31&gt;0,IF(D31="CASH",F30,IF(D31="UNCASHED",F30,IF(D31="DONATION",F30,F30+E31))),F30))</f>
         <v/>
       </c>
       <c r="G31" s="114" t="str">
-        <f t="shared" ref="G31:G94" si="7">IF(B31=0, " ", G30+SUM(AD31:AI31))</f>
+        <f t="shared" ref="G31:G94" si="8">IF(B31=0, " ", G30+SUM(AD31:AI31))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H31" s="115"/>
@@ -5016,11 +5016,11 @@
       <c r="D32" s="105"/>
       <c r="E32" s="106"/>
       <c r="F32" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G32" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H32" s="115"/>
@@ -5061,11 +5061,11 @@
       <c r="D33" s="105"/>
       <c r="E33" s="106"/>
       <c r="F33" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G33" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H33" s="115"/>
@@ -5106,11 +5106,11 @@
       <c r="D34" s="105"/>
       <c r="E34" s="106"/>
       <c r="F34" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G34" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H34" s="115"/>
@@ -5151,11 +5151,11 @@
       <c r="D35" s="105"/>
       <c r="E35" s="106"/>
       <c r="F35" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G35" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H35" s="115"/>
@@ -5196,11 +5196,11 @@
       <c r="D36" s="105"/>
       <c r="E36" s="106"/>
       <c r="F36" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G36" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H36" s="115"/>
@@ -5241,11 +5241,11 @@
       <c r="D37" s="105"/>
       <c r="E37" s="106"/>
       <c r="F37" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G37" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H37" s="115"/>
@@ -5286,11 +5286,11 @@
       <c r="D38" s="105"/>
       <c r="E38" s="106"/>
       <c r="F38" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G38" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H38" s="115"/>
@@ -5331,11 +5331,11 @@
       <c r="D39" s="105"/>
       <c r="E39" s="106"/>
       <c r="F39" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G39" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H39" s="115"/>
@@ -5376,11 +5376,11 @@
       <c r="D40" s="105"/>
       <c r="E40" s="106"/>
       <c r="F40" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G40" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H40" s="115"/>
@@ -5421,11 +5421,11 @@
       <c r="D41" s="105"/>
       <c r="E41" s="106"/>
       <c r="F41" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G41" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H41" s="115"/>
@@ -5466,11 +5466,11 @@
       <c r="D42" s="105"/>
       <c r="E42" s="106"/>
       <c r="F42" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G42" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H42" s="115"/>
@@ -5511,11 +5511,11 @@
       <c r="D43" s="105"/>
       <c r="E43" s="106"/>
       <c r="F43" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G43" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H43" s="115"/>
@@ -5556,11 +5556,11 @@
       <c r="D44" s="105"/>
       <c r="E44" s="106"/>
       <c r="F44" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G44" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H44" s="115"/>
@@ -5601,11 +5601,11 @@
       <c r="D45" s="105"/>
       <c r="E45" s="106"/>
       <c r="F45" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G45" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H45" s="115"/>
@@ -5646,11 +5646,11 @@
       <c r="D46" s="105"/>
       <c r="E46" s="106"/>
       <c r="F46" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G46" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H46" s="115"/>
@@ -5691,11 +5691,11 @@
       <c r="D47" s="105"/>
       <c r="E47" s="106"/>
       <c r="F47" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G47" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H47" s="115"/>
@@ -5736,11 +5736,11 @@
       <c r="D48" s="105"/>
       <c r="E48" s="106"/>
       <c r="F48" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G48" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H48" s="115"/>
@@ -5781,11 +5781,11 @@
       <c r="D49" s="105"/>
       <c r="E49" s="106"/>
       <c r="F49" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G49" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H49" s="115"/>
@@ -5826,11 +5826,11 @@
       <c r="D50" s="105"/>
       <c r="E50" s="106"/>
       <c r="F50" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G50" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H50" s="115"/>
@@ -5871,11 +5871,11 @@
       <c r="D51" s="105"/>
       <c r="E51" s="106"/>
       <c r="F51" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G51" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H51" s="115"/>
@@ -5916,11 +5916,11 @@
       <c r="D52" s="105"/>
       <c r="E52" s="106"/>
       <c r="F52" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G52" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H52" s="115"/>
@@ -5961,11 +5961,11 @@
       <c r="D53" s="105"/>
       <c r="E53" s="106"/>
       <c r="F53" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G53" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H53" s="115"/>
@@ -6006,11 +6006,11 @@
       <c r="D54" s="105"/>
       <c r="E54" s="106"/>
       <c r="F54" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G54" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H54" s="115"/>
@@ -6051,11 +6051,11 @@
       <c r="D55" s="105"/>
       <c r="E55" s="106"/>
       <c r="F55" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G55" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H55" s="115"/>
@@ -6096,11 +6096,11 @@
       <c r="D56" s="105"/>
       <c r="E56" s="106"/>
       <c r="F56" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G56" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H56" s="115"/>
@@ -6141,11 +6141,11 @@
       <c r="D57" s="105"/>
       <c r="E57" s="106"/>
       <c r="F57" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G57" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H57" s="115"/>
@@ -6186,11 +6186,11 @@
       <c r="D58" s="105"/>
       <c r="E58" s="106"/>
       <c r="F58" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G58" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H58" s="115"/>
@@ -6231,11 +6231,11 @@
       <c r="D59" s="105"/>
       <c r="E59" s="106"/>
       <c r="F59" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G59" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H59" s="115"/>
@@ -6276,11 +6276,11 @@
       <c r="D60" s="105"/>
       <c r="E60" s="106"/>
       <c r="F60" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G60" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H60" s="115"/>
@@ -6321,11 +6321,11 @@
       <c r="D61" s="105"/>
       <c r="E61" s="106"/>
       <c r="F61" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G61" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H61" s="115"/>
@@ -6366,11 +6366,11 @@
       <c r="D62" s="105"/>
       <c r="E62" s="106"/>
       <c r="F62" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G62" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H62" s="115"/>
@@ -6411,11 +6411,11 @@
       <c r="D63" s="105"/>
       <c r="E63" s="106"/>
       <c r="F63" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G63" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H63" s="115"/>
@@ -6456,11 +6456,11 @@
       <c r="D64" s="105"/>
       <c r="E64" s="106"/>
       <c r="F64" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G64" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H64" s="115"/>
@@ -6501,11 +6501,11 @@
       <c r="D65" s="105"/>
       <c r="E65" s="106"/>
       <c r="F65" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G65" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H65" s="115"/>
@@ -6546,11 +6546,11 @@
       <c r="D66" s="105"/>
       <c r="E66" s="106"/>
       <c r="F66" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G66" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H66" s="115"/>
@@ -6591,11 +6591,11 @@
       <c r="D67" s="105"/>
       <c r="E67" s="106"/>
       <c r="F67" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G67" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H67" s="115"/>
@@ -6636,11 +6636,11 @@
       <c r="D68" s="105"/>
       <c r="E68" s="106"/>
       <c r="F68" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G68" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H68" s="115"/>
@@ -6681,11 +6681,11 @@
       <c r="D69" s="105"/>
       <c r="E69" s="106"/>
       <c r="F69" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G69" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H69" s="115"/>
@@ -6726,11 +6726,11 @@
       <c r="D70" s="105"/>
       <c r="E70" s="106"/>
       <c r="F70" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G70" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H70" s="115"/>
@@ -6771,11 +6771,11 @@
       <c r="D71" s="105"/>
       <c r="E71" s="106"/>
       <c r="F71" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G71" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H71" s="115"/>
@@ -6816,11 +6816,11 @@
       <c r="D72" s="105"/>
       <c r="E72" s="106"/>
       <c r="F72" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G72" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H72" s="115"/>
@@ -6861,11 +6861,11 @@
       <c r="D73" s="105"/>
       <c r="E73" s="106"/>
       <c r="F73" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G73" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H73" s="115"/>
@@ -6906,11 +6906,11 @@
       <c r="D74" s="105"/>
       <c r="E74" s="106"/>
       <c r="F74" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G74" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H74" s="115"/>
@@ -6951,11 +6951,11 @@
       <c r="D75" s="105"/>
       <c r="E75" s="106"/>
       <c r="F75" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G75" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H75" s="115"/>
@@ -6996,11 +6996,11 @@
       <c r="D76" s="105"/>
       <c r="E76" s="106"/>
       <c r="F76" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G76" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H76" s="115"/>
@@ -7041,11 +7041,11 @@
       <c r="D77" s="105"/>
       <c r="E77" s="106"/>
       <c r="F77" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G77" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H77" s="115"/>
@@ -7086,11 +7086,11 @@
       <c r="D78" s="105"/>
       <c r="E78" s="106"/>
       <c r="F78" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G78" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H78" s="115"/>
@@ -7131,11 +7131,11 @@
       <c r="D79" s="105"/>
       <c r="E79" s="106"/>
       <c r="F79" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G79" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H79" s="115"/>
@@ -7176,11 +7176,11 @@
       <c r="D80" s="105"/>
       <c r="E80" s="106"/>
       <c r="F80" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G80" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H80" s="115"/>
@@ -7221,11 +7221,11 @@
       <c r="D81" s="105"/>
       <c r="E81" s="106"/>
       <c r="F81" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G81" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H81" s="115"/>
@@ -7266,11 +7266,11 @@
       <c r="D82" s="105"/>
       <c r="E82" s="106"/>
       <c r="F82" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G82" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H82" s="115"/>
@@ -7311,11 +7311,11 @@
       <c r="D83" s="105"/>
       <c r="E83" s="106"/>
       <c r="F83" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G83" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H83" s="115"/>
@@ -7356,11 +7356,11 @@
       <c r="D84" s="105"/>
       <c r="E84" s="106"/>
       <c r="F84" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G84" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H84" s="115"/>
@@ -7401,11 +7401,11 @@
       <c r="D85" s="105"/>
       <c r="E85" s="106"/>
       <c r="F85" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G85" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H85" s="115"/>
@@ -7446,11 +7446,11 @@
       <c r="D86" s="105"/>
       <c r="E86" s="106"/>
       <c r="F86" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G86" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H86" s="115"/>
@@ -7491,11 +7491,11 @@
       <c r="D87" s="105"/>
       <c r="E87" s="106"/>
       <c r="F87" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G87" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H87" s="115"/>
@@ -7536,11 +7536,11 @@
       <c r="D88" s="105"/>
       <c r="E88" s="106"/>
       <c r="F88" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G88" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H88" s="115"/>
@@ -7581,11 +7581,11 @@
       <c r="D89" s="105"/>
       <c r="E89" s="106"/>
       <c r="F89" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G89" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H89" s="115"/>
@@ -7626,11 +7626,11 @@
       <c r="D90" s="105"/>
       <c r="E90" s="106"/>
       <c r="F90" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G90" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H90" s="115"/>
@@ -7671,11 +7671,11 @@
       <c r="D91" s="105"/>
       <c r="E91" s="106"/>
       <c r="F91" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G91" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H91" s="115"/>
@@ -7716,11 +7716,11 @@
       <c r="D92" s="105"/>
       <c r="E92" s="106"/>
       <c r="F92" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G92" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H92" s="115"/>
@@ -7761,11 +7761,11 @@
       <c r="D93" s="105"/>
       <c r="E93" s="106"/>
       <c r="F93" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G93" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H93" s="115"/>
@@ -7806,11 +7806,11 @@
       <c r="D94" s="105"/>
       <c r="E94" s="106"/>
       <c r="F94" s="135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G94" s="114" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H94" s="115"/>
@@ -7851,11 +7851,11 @@
       <c r="D95" s="105"/>
       <c r="E95" s="106"/>
       <c r="F95" s="135" t="str">
-        <f t="shared" ref="F95:F158" si="8">IF(E95=0,"",IF(D95&gt;0,IF(D95="CASH",F94,IF(D95="UNCASHED",F94,IF(D95="DONATION",F94,F94+E95))),F94))</f>
+        <f t="shared" ref="F95:F158" si="9">IF(E95=0,"",IF(D95&gt;0,IF(D95="CASH",F94,IF(D95="UNCASHED",F94,IF(D95="DONATION",F94,F94+E95))),F94))</f>
         <v/>
       </c>
       <c r="G95" s="114" t="str">
-        <f t="shared" ref="G95:G158" si="9">IF(B95=0, " ", G94+SUM(AD95:AI95))</f>
+        <f t="shared" ref="G95:G158" si="10">IF(B95=0, " ", G94+SUM(AD95:AI95))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H95" s="115"/>
@@ -7896,11 +7896,11 @@
       <c r="D96" s="105"/>
       <c r="E96" s="106"/>
       <c r="F96" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G96" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H96" s="115"/>
@@ -7941,11 +7941,11 @@
       <c r="D97" s="105"/>
       <c r="E97" s="106"/>
       <c r="F97" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G97" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H97" s="115"/>
@@ -7986,11 +7986,11 @@
       <c r="D98" s="105"/>
       <c r="E98" s="106"/>
       <c r="F98" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G98" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H98" s="115"/>
@@ -8031,11 +8031,11 @@
       <c r="D99" s="105"/>
       <c r="E99" s="106"/>
       <c r="F99" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G99" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H99" s="115"/>
@@ -8076,11 +8076,11 @@
       <c r="D100" s="105"/>
       <c r="E100" s="106"/>
       <c r="F100" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G100" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H100" s="115"/>
@@ -8121,11 +8121,11 @@
       <c r="D101" s="105"/>
       <c r="E101" s="106"/>
       <c r="F101" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G101" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H101" s="115"/>
@@ -8166,11 +8166,11 @@
       <c r="D102" s="105"/>
       <c r="E102" s="106"/>
       <c r="F102" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G102" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H102" s="115"/>
@@ -8211,11 +8211,11 @@
       <c r="D103" s="105"/>
       <c r="E103" s="106"/>
       <c r="F103" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G103" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H103" s="115"/>
@@ -8256,11 +8256,11 @@
       <c r="D104" s="105"/>
       <c r="E104" s="106"/>
       <c r="F104" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G104" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H104" s="115"/>
@@ -8301,11 +8301,11 @@
       <c r="D105" s="105"/>
       <c r="E105" s="106"/>
       <c r="F105" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G105" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H105" s="115"/>
@@ -8346,11 +8346,11 @@
       <c r="D106" s="105"/>
       <c r="E106" s="106"/>
       <c r="F106" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G106" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H106" s="115"/>
@@ -8391,11 +8391,11 @@
       <c r="D107" s="105"/>
       <c r="E107" s="106"/>
       <c r="F107" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G107" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H107" s="115"/>
@@ -8436,11 +8436,11 @@
       <c r="D108" s="105"/>
       <c r="E108" s="106"/>
       <c r="F108" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G108" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H108" s="115"/>
@@ -8481,11 +8481,11 @@
       <c r="D109" s="105"/>
       <c r="E109" s="106"/>
       <c r="F109" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G109" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H109" s="115"/>
@@ -8526,11 +8526,11 @@
       <c r="D110" s="105"/>
       <c r="E110" s="106"/>
       <c r="F110" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G110" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H110" s="115"/>
@@ -8571,11 +8571,11 @@
       <c r="D111" s="105"/>
       <c r="E111" s="106"/>
       <c r="F111" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G111" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H111" s="115"/>
@@ -8616,11 +8616,11 @@
       <c r="D112" s="105"/>
       <c r="E112" s="106"/>
       <c r="F112" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G112" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H112" s="115"/>
@@ -8661,11 +8661,11 @@
       <c r="D113" s="105"/>
       <c r="E113" s="106"/>
       <c r="F113" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G113" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H113" s="115"/>
@@ -8706,11 +8706,11 @@
       <c r="D114" s="105"/>
       <c r="E114" s="106"/>
       <c r="F114" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G114" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H114" s="115"/>
@@ -8751,11 +8751,11 @@
       <c r="D115" s="105"/>
       <c r="E115" s="106"/>
       <c r="F115" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G115" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H115" s="115"/>
@@ -8796,11 +8796,11 @@
       <c r="D116" s="105"/>
       <c r="E116" s="106"/>
       <c r="F116" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G116" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H116" s="115"/>
@@ -8841,11 +8841,11 @@
       <c r="D117" s="105"/>
       <c r="E117" s="106"/>
       <c r="F117" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G117" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H117" s="115"/>
@@ -8886,11 +8886,11 @@
       <c r="D118" s="105"/>
       <c r="E118" s="106"/>
       <c r="F118" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G118" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H118" s="115"/>
@@ -8931,11 +8931,11 @@
       <c r="D119" s="105"/>
       <c r="E119" s="106"/>
       <c r="F119" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G119" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H119" s="115"/>
@@ -8976,11 +8976,11 @@
       <c r="D120" s="105"/>
       <c r="E120" s="106"/>
       <c r="F120" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G120" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H120" s="115"/>
@@ -9021,11 +9021,11 @@
       <c r="D121" s="105"/>
       <c r="E121" s="106"/>
       <c r="F121" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G121" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H121" s="115"/>
@@ -9066,11 +9066,11 @@
       <c r="D122" s="105"/>
       <c r="E122" s="106"/>
       <c r="F122" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G122" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H122" s="115"/>
@@ -9111,11 +9111,11 @@
       <c r="D123" s="105"/>
       <c r="E123" s="106"/>
       <c r="F123" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G123" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H123" s="115"/>
@@ -9156,11 +9156,11 @@
       <c r="D124" s="105"/>
       <c r="E124" s="106"/>
       <c r="F124" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G124" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H124" s="115"/>
@@ -9201,11 +9201,11 @@
       <c r="D125" s="105"/>
       <c r="E125" s="106"/>
       <c r="F125" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G125" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H125" s="115"/>
@@ -9246,11 +9246,11 @@
       <c r="D126" s="105"/>
       <c r="E126" s="106"/>
       <c r="F126" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G126" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H126" s="115"/>
@@ -9291,11 +9291,11 @@
       <c r="D127" s="105"/>
       <c r="E127" s="106"/>
       <c r="F127" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G127" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H127" s="115"/>
@@ -9336,11 +9336,11 @@
       <c r="D128" s="105"/>
       <c r="E128" s="106"/>
       <c r="F128" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G128" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H128" s="115"/>
@@ -9381,11 +9381,11 @@
       <c r="D129" s="105"/>
       <c r="E129" s="106"/>
       <c r="F129" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G129" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H129" s="115"/>
@@ -9426,11 +9426,11 @@
       <c r="D130" s="105"/>
       <c r="E130" s="106"/>
       <c r="F130" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G130" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H130" s="115"/>
@@ -9471,11 +9471,11 @@
       <c r="D131" s="105"/>
       <c r="E131" s="106"/>
       <c r="F131" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G131" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H131" s="115"/>
@@ -9516,11 +9516,11 @@
       <c r="D132" s="105"/>
       <c r="E132" s="106"/>
       <c r="F132" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G132" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H132" s="115"/>
@@ -9561,11 +9561,11 @@
       <c r="D133" s="105"/>
       <c r="E133" s="106"/>
       <c r="F133" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G133" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H133" s="115"/>
@@ -9606,11 +9606,11 @@
       <c r="D134" s="105"/>
       <c r="E134" s="106"/>
       <c r="F134" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G134" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H134" s="115"/>
@@ -9651,11 +9651,11 @@
       <c r="D135" s="105"/>
       <c r="E135" s="106"/>
       <c r="F135" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G135" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H135" s="115"/>
@@ -9696,11 +9696,11 @@
       <c r="D136" s="105"/>
       <c r="E136" s="106"/>
       <c r="F136" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G136" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H136" s="115"/>
@@ -9741,11 +9741,11 @@
       <c r="D137" s="105"/>
       <c r="E137" s="106"/>
       <c r="F137" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G137" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H137" s="115"/>
@@ -9786,11 +9786,11 @@
       <c r="D138" s="105"/>
       <c r="E138" s="106"/>
       <c r="F138" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G138" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H138" s="115"/>
@@ -9831,11 +9831,11 @@
       <c r="D139" s="105"/>
       <c r="E139" s="106"/>
       <c r="F139" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G139" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H139" s="115"/>
@@ -9876,11 +9876,11 @@
       <c r="D140" s="105"/>
       <c r="E140" s="106"/>
       <c r="F140" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G140" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H140" s="115"/>
@@ -9921,11 +9921,11 @@
       <c r="D141" s="105"/>
       <c r="E141" s="106"/>
       <c r="F141" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G141" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H141" s="115"/>
@@ -9966,11 +9966,11 @@
       <c r="D142" s="105"/>
       <c r="E142" s="106"/>
       <c r="F142" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G142" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H142" s="115"/>
@@ -10011,11 +10011,11 @@
       <c r="D143" s="105"/>
       <c r="E143" s="106"/>
       <c r="F143" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G143" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H143" s="115"/>
@@ -10056,11 +10056,11 @@
       <c r="D144" s="105"/>
       <c r="E144" s="106"/>
       <c r="F144" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G144" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H144" s="115"/>
@@ -10101,11 +10101,11 @@
       <c r="D145" s="105"/>
       <c r="E145" s="106"/>
       <c r="F145" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G145" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H145" s="115"/>
@@ -10146,11 +10146,11 @@
       <c r="D146" s="105"/>
       <c r="E146" s="106"/>
       <c r="F146" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G146" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H146" s="115"/>
@@ -10191,11 +10191,11 @@
       <c r="D147" s="105"/>
       <c r="E147" s="106"/>
       <c r="F147" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G147" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H147" s="115"/>
@@ -10236,11 +10236,11 @@
       <c r="D148" s="105"/>
       <c r="E148" s="106"/>
       <c r="F148" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G148" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H148" s="115"/>
@@ -10281,11 +10281,11 @@
       <c r="D149" s="105"/>
       <c r="E149" s="106"/>
       <c r="F149" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G149" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H149" s="115"/>
@@ -10326,11 +10326,11 @@
       <c r="D150" s="105"/>
       <c r="E150" s="106"/>
       <c r="F150" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G150" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H150" s="115"/>
@@ -10371,11 +10371,11 @@
       <c r="D151" s="105"/>
       <c r="E151" s="106"/>
       <c r="F151" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G151" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H151" s="115"/>
@@ -10416,11 +10416,11 @@
       <c r="D152" s="105"/>
       <c r="E152" s="106"/>
       <c r="F152" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G152" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H152" s="115"/>
@@ -10461,11 +10461,11 @@
       <c r="D153" s="105"/>
       <c r="E153" s="106"/>
       <c r="F153" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G153" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H153" s="115"/>
@@ -10506,11 +10506,11 @@
       <c r="D154" s="105"/>
       <c r="E154" s="106"/>
       <c r="F154" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G154" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H154" s="115"/>
@@ -10551,11 +10551,11 @@
       <c r="D155" s="105"/>
       <c r="E155" s="106"/>
       <c r="F155" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G155" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H155" s="115"/>
@@ -10596,11 +10596,11 @@
       <c r="D156" s="105"/>
       <c r="E156" s="106"/>
       <c r="F156" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G156" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H156" s="115"/>
@@ -10641,11 +10641,11 @@
       <c r="D157" s="105"/>
       <c r="E157" s="106"/>
       <c r="F157" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G157" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H157" s="115"/>
@@ -10686,11 +10686,11 @@
       <c r="D158" s="105"/>
       <c r="E158" s="106"/>
       <c r="F158" s="135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="G158" s="114" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H158" s="115"/>
@@ -10731,11 +10731,11 @@
       <c r="D159" s="105"/>
       <c r="E159" s="106"/>
       <c r="F159" s="135" t="str">
-        <f t="shared" ref="F159:F164" si="10">IF(E159=0,"",IF(D159&gt;0,IF(D159="CASH",F158,IF(D159="UNCASHED",F158,IF(D159="DONATION",F158,F158+E159))),F158))</f>
+        <f t="shared" ref="F159:F164" si="11">IF(E159=0,"",IF(D159&gt;0,IF(D159="CASH",F158,IF(D159="UNCASHED",F158,IF(D159="DONATION",F158,F158+E159))),F158))</f>
         <v/>
       </c>
       <c r="G159" s="114" t="str">
-        <f t="shared" ref="G159:G164" si="11">IF(B159=0, " ", G158+SUM(AD159:AI159))</f>
+        <f t="shared" ref="G159:G164" si="12">IF(B159=0, " ", G158+SUM(AD159:AI159))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H159" s="115"/>
@@ -10776,11 +10776,11 @@
       <c r="D160" s="105"/>
       <c r="E160" s="106"/>
       <c r="F160" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G160" s="114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H160" s="115"/>
@@ -10821,11 +10821,11 @@
       <c r="D161" s="105"/>
       <c r="E161" s="106"/>
       <c r="F161" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G161" s="114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H161" s="115"/>
@@ -10866,11 +10866,11 @@
       <c r="D162" s="105"/>
       <c r="E162" s="106"/>
       <c r="F162" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G162" s="114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H162" s="115"/>
@@ -10911,11 +10911,11 @@
       <c r="D163" s="105"/>
       <c r="E163" s="106"/>
       <c r="F163" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G163" s="114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H163" s="115"/>
@@ -10956,11 +10956,11 @@
       <c r="D164" s="105"/>
       <c r="E164" s="106"/>
       <c r="F164" s="135" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G164" s="114" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H164" s="115"/>
@@ -11045,10 +11045,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="277" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="274"/>
+      <c r="B1" s="278"/>
       <c r="D1" s="125"/>
       <c r="E1" s="126"/>
       <c r="F1" s="127"/>
@@ -11253,17 +11253,17 @@
       <c r="AZ5" s="121"/>
     </row>
     <row r="6" spans="1:52" s="120" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="269" t="s">
+      <c r="A6" s="273" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
+      <c r="B6" s="274"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="136" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="147">
         <f ca="1">TODAY()</f>
-        <v>44425</v>
+        <v>44427</v>
       </c>
       <c r="F6" s="137"/>
       <c r="N6" s="209"/>
@@ -13128,10 +13128,10 @@
       <c r="AT47" s="234"/>
     </row>
     <row r="48" spans="1:47" s="120" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="271" t="s">
+      <c r="A48" s="275" t="s">
         <v>354</v>
       </c>
-      <c r="B48" s="272"/>
+      <c r="B48" s="276"/>
       <c r="C48" s="260">
         <f>C16+C26-C46</f>
         <v>-5556</v>
@@ -13264,10 +13264,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="279" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="279"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13780,10 +13780,10 @@
       <c r="F35" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="275" t="s">
+      <c r="A37" s="279" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="275"/>
+      <c r="B37" s="279"/>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
